--- a/data/trans_orig/AIRE_1-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/AIRE_1-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{569C8FD8-9C20-4BE9-9B40-6661FAC7D64E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69E8B933-5BDB-4836-8AC0-65C28E9513D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{87772939-3C6F-44F1-B3D4-629C1509172D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{6A7B1AB9-118D-4EAD-8E64-D99FE0112752}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="488">
   <si>
     <t>Población según lo que estarían dispuestos a pagar al año para que la administración pública ponga en marcha actuaciones (+++) en su municipio/ciudad (o lugar de residencia) que haga reducir la contaminación del aire en 2023 (Tasa respuesta: 51,54%)</t>
   </si>
@@ -71,1483 +71,1432 @@
     <t>Más de 50€</t>
   </si>
   <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>50 €</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>45 €</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>40 €</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>35 €</t>
+  </si>
+  <si>
+    <t>30 €</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>25 €</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>20 €</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>15 €</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>10 €</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>5 €</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>0 €*</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
     <t>0,64%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>50 €</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
   </si>
   <si>
     <t>0,26%</t>
   </si>
   <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>45 €</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>40 €</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>35 €</t>
-  </si>
-  <si>
-    <t>30 €</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>25 €</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>20 €</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>15 €</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>10 €</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
     <t>0,99%</t>
   </si>
   <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5 €</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>0 €*</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
   </si>
   <si>
     <t>2,17%</t>
   </si>
   <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
   </si>
   <si>
     <t>73,71%</t>
   </si>
   <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1962,7 +1911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4BC1F08-524E-42B5-B40E-180D15CD80B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A89EC1E-CB43-4924-BE90-B51B03558C05}">
   <dimension ref="A1:Q121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2083,7 +2032,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>856</v>
+        <v>960</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2098,7 +2047,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>442</v>
+        <v>468</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2113,7 +2062,7 @@
         <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>1298</v>
+        <v>1428</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -2134,7 +2083,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>2388</v>
+        <v>2628</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -2149,7 +2098,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>745</v>
+        <v>834</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>22</v>
@@ -2164,7 +2113,7 @@
         <v>4</v>
       </c>
       <c r="N5" s="7">
-        <v>3133</v>
+        <v>3462</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
@@ -2251,7 +2200,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>1373</v>
+        <v>1723</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>33</v>
@@ -2266,22 +2215,22 @@
         <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>1373</v>
+        <v>1723</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -2332,28 +2281,28 @@
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" s="7">
         <v>1</v>
       </c>
       <c r="D9" s="7">
-        <v>821</v>
+        <v>914</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
       </c>
       <c r="I9" s="7">
-        <v>2194</v>
+        <v>2345</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>40</v>
@@ -2368,7 +2317,7 @@
         <v>5</v>
       </c>
       <c r="N9" s="7">
-        <v>3015</v>
+        <v>3259</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>42</v>
@@ -2389,40 +2338,40 @@
         <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>2488</v>
+        <v>2780</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>46</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
       </c>
       <c r="N10" s="7">
-        <v>2991</v>
+        <v>3296</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>25</v>
@@ -2440,7 +2389,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="7">
-        <v>5002</v>
+        <v>5645</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>53</v>
@@ -2455,7 +2404,7 @@
         <v>7</v>
       </c>
       <c r="I11" s="7">
-        <v>4261</v>
+        <v>4752</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>56</v>
@@ -2470,7 +2419,7 @@
         <v>14</v>
       </c>
       <c r="N11" s="7">
-        <v>9263</v>
+        <v>10397</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>59</v>
@@ -2491,7 +2440,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="7">
-        <v>5424</v>
+        <v>6315</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>63</v>
@@ -2506,7 +2455,7 @@
         <v>9</v>
       </c>
       <c r="I12" s="7">
-        <v>3370</v>
+        <v>3607</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>66</v>
@@ -2521,115 +2470,115 @@
         <v>16</v>
       </c>
       <c r="N12" s="7">
-        <v>8794</v>
+        <v>9921</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>69</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13" s="7">
         <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>5652</v>
+        <v>9254</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
       </c>
       <c r="I13" s="7">
-        <v>5887</v>
+        <v>6217</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
       </c>
       <c r="N13" s="7">
-        <v>11539</v>
+        <v>15470</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" s="7">
         <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>1995</v>
+        <v>2152</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
       </c>
       <c r="I14" s="7">
-        <v>4146</v>
+        <v>4320</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>12</v>
+      </c>
+      <c r="N14" s="7">
+        <v>6472</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="M14" s="7">
-        <v>12</v>
-      </c>
-      <c r="N14" s="7">
-        <v>6141</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="P14" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>89</v>
@@ -2644,7 +2593,7 @@
         <v>149</v>
       </c>
       <c r="D15" s="7">
-        <v>110179</v>
+        <v>126529</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>91</v>
@@ -2659,7 +2608,7 @@
         <v>259</v>
       </c>
       <c r="I15" s="7">
-        <v>130960</v>
+        <v>138536</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>94</v>
@@ -2674,7 +2623,7 @@
         <v>408</v>
       </c>
       <c r="N15" s="7">
-        <v>241139</v>
+        <v>265065</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>97</v>
@@ -2695,7 +2644,7 @@
         <v>178</v>
       </c>
       <c r="D16" s="7">
-        <v>134806</v>
+        <v>157176</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>100</v>
@@ -2710,7 +2659,7 @@
         <v>305</v>
       </c>
       <c r="I16" s="7">
-        <v>153879</v>
+        <v>163318</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>100</v>
@@ -2725,7 +2674,7 @@
         <v>483</v>
       </c>
       <c r="N16" s="7">
-        <v>288685</v>
+        <v>320494</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>100</v>
@@ -2748,46 +2697,46 @@
         <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>1435</v>
+        <v>1388</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
       </c>
       <c r="I17" s="7">
-        <v>3799</v>
+        <v>3543</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
       </c>
       <c r="N17" s="7">
-        <v>5234</v>
+        <v>4931</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2799,46 +2748,46 @@
         <v>5</v>
       </c>
       <c r="D18" s="7">
-        <v>8711</v>
+        <v>9002</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
       </c>
       <c r="I18" s="7">
-        <v>3705</v>
+        <v>3407</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="M18" s="7">
         <v>9</v>
       </c>
       <c r="N18" s="7">
-        <v>12416</v>
+        <v>12409</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2859,37 +2808,37 @@
         <v>28</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2901,17 +2850,17 @@
         <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
-      </c>
       <c r="H20" s="7">
         <v>0</v>
       </c>
@@ -2925,28 +2874,28 @@
         <v>28</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -2961,88 +2910,88 @@
         <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
       </c>
       <c r="I21" s="7">
-        <v>1515</v>
+        <v>1393</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
       </c>
       <c r="N21" s="7">
-        <v>1515</v>
+        <v>1393</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" s="7">
         <v>3</v>
       </c>
       <c r="D22" s="7">
-        <v>3424</v>
+        <v>3223</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
       </c>
       <c r="I22" s="7">
-        <v>4437</v>
+        <v>4126</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
       </c>
       <c r="N22" s="7">
-        <v>7861</v>
+        <v>7349</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>49</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3054,46 +3003,46 @@
         <v>4</v>
       </c>
       <c r="D23" s="7">
-        <v>4138</v>
+        <v>3837</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
       </c>
       <c r="I23" s="7">
-        <v>2224</v>
+        <v>2040</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>25</v>
+        <v>135</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M23" s="7">
         <v>7</v>
       </c>
       <c r="N23" s="7">
-        <v>6361</v>
+        <v>5877</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3105,46 +3054,46 @@
         <v>6</v>
       </c>
       <c r="D24" s="7">
-        <v>10069</v>
+        <v>11035</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
       </c>
       <c r="I24" s="7">
-        <v>5464</v>
+        <v>5013</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M24" s="7">
         <v>11</v>
       </c>
       <c r="N24" s="7">
-        <v>15533</v>
+        <v>16048</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>146</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>50</v>
+        <v>147</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3156,79 +3105,79 @@
         <v>6</v>
       </c>
       <c r="D25" s="7">
-        <v>8535</v>
+        <v>8528</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
       </c>
       <c r="I25" s="7">
-        <v>2958</v>
+        <v>2757</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
       </c>
       <c r="N25" s="7">
-        <v>11494</v>
+        <v>11284</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>66</v>
+        <v>153</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C26" s="7">
         <v>18</v>
       </c>
       <c r="D26" s="7">
-        <v>31631</v>
+        <v>33196</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>22</v>
       </c>
       <c r="I26" s="7">
-        <v>17937</v>
+        <v>16610</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>159</v>
@@ -3237,7 +3186,7 @@
         <v>40</v>
       </c>
       <c r="N26" s="7">
-        <v>49568</v>
+        <v>49806</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>160</v>
@@ -3252,52 +3201,52 @@
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C27" s="7">
         <v>4</v>
       </c>
       <c r="D27" s="7">
-        <v>4238</v>
+        <v>4113</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H27" s="7">
         <v>14</v>
       </c>
       <c r="I27" s="7">
-        <v>13116</v>
+        <v>12097</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M27" s="7">
         <v>18</v>
       </c>
       <c r="N27" s="7">
-        <v>17353</v>
+        <v>16211</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3309,46 +3258,46 @@
         <v>147</v>
       </c>
       <c r="D28" s="7">
-        <v>200270</v>
+        <v>197856</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H28" s="7">
         <v>269</v>
       </c>
       <c r="I28" s="7">
-        <v>197030</v>
+        <v>183008</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M28" s="7">
         <v>416</v>
       </c>
       <c r="N28" s="7">
-        <v>397300</v>
+        <v>380864</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3360,7 +3309,7 @@
         <v>195</v>
       </c>
       <c r="D29" s="7">
-        <v>272610</v>
+        <v>272340</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>100</v>
@@ -3375,7 +3324,7 @@
         <v>335</v>
       </c>
       <c r="I29" s="7">
-        <v>252185</v>
+        <v>233994</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>100</v>
@@ -3390,7 +3339,7 @@
         <v>530</v>
       </c>
       <c r="N29" s="7">
-        <v>524795</v>
+        <v>506334</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>100</v>
@@ -3404,7 +3353,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>10</v>
@@ -3413,46 +3362,46 @@
         <v>2</v>
       </c>
       <c r="D30" s="7">
-        <v>1703</v>
+        <v>1644</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="H30" s="7">
-        <v>0</v>
-      </c>
-      <c r="I30" s="7">
-        <v>0</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
       </c>
       <c r="N30" s="7">
-        <v>1703</v>
+        <v>1644</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>185</v>
+        <v>16</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>134</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3473,23 +3422,23 @@
         <v>28</v>
       </c>
       <c r="G31" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7">
+        <v>0</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
-        <v>0</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>184</v>
-      </c>
       <c r="M31" s="7">
         <v>0</v>
       </c>
@@ -3503,7 +3452,7 @@
         <v>28</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3524,23 +3473,23 @@
         <v>28</v>
       </c>
       <c r="G32" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>184</v>
-      </c>
       <c r="M32" s="7">
         <v>0</v>
       </c>
@@ -3554,7 +3503,7 @@
         <v>28</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3575,23 +3524,23 @@
         <v>28</v>
       </c>
       <c r="G33" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="H33" s="7">
-        <v>0</v>
-      </c>
-      <c r="I33" s="7">
-        <v>0</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>184</v>
-      </c>
       <c r="M33" s="7">
         <v>0</v>
       </c>
@@ -3605,13 +3554,13 @@
         <v>28</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C34" s="7">
         <v>0</v>
@@ -3626,23 +3575,23 @@
         <v>28</v>
       </c>
       <c r="G34" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="H34" s="7">
-        <v>0</v>
-      </c>
-      <c r="I34" s="7">
-        <v>0</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>184</v>
-      </c>
       <c r="M34" s="7">
         <v>0</v>
       </c>
@@ -3656,13 +3605,13 @@
         <v>28</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C35" s="7">
         <v>0</v>
@@ -3677,23 +3626,23 @@
         <v>28</v>
       </c>
       <c r="G35" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0</v>
+      </c>
+      <c r="I35" s="7">
+        <v>0</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="H35" s="7">
-        <v>0</v>
-      </c>
-      <c r="I35" s="7">
-        <v>0</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>184</v>
-      </c>
       <c r="M35" s="7">
         <v>0</v>
       </c>
@@ -3707,7 +3656,7 @@
         <v>28</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,31 +3677,31 @@
         <v>28</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
       </c>
       <c r="I36" s="7">
-        <v>1370</v>
+        <v>1293</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
       </c>
       <c r="N36" s="7">
-        <v>1370</v>
+        <v>1293</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>117</v>
+        <v>187</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>12</v>
@@ -3770,46 +3719,46 @@
         <v>2</v>
       </c>
       <c r="D37" s="7">
-        <v>1681</v>
+        <v>1729</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H37" s="7">
         <v>3</v>
       </c>
       <c r="I37" s="7">
-        <v>1694</v>
+        <v>1559</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M37" s="7">
         <v>5</v>
       </c>
       <c r="N37" s="7">
-        <v>3374</v>
+        <v>3288</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>137</v>
+        <v>194</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>193</v>
+        <v>25</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3821,148 +3770,148 @@
         <v>2</v>
       </c>
       <c r="D38" s="7">
-        <v>1525</v>
+        <v>1436</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H38" s="7">
         <v>3</v>
       </c>
       <c r="I38" s="7">
-        <v>2781</v>
+        <v>2610</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>40</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M38" s="7">
         <v>5</v>
       </c>
       <c r="N38" s="7">
-        <v>4306</v>
+        <v>4045</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>31</v>
+        <v>185</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>86</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C39" s="7">
         <v>10</v>
       </c>
       <c r="D39" s="7">
-        <v>12753</v>
+        <v>13031</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H39" s="7">
         <v>15</v>
       </c>
       <c r="I39" s="7">
-        <v>10759</v>
+        <v>10100</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M39" s="7">
         <v>25</v>
       </c>
       <c r="N39" s="7">
-        <v>23512</v>
+        <v>23131</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C40" s="7">
         <v>28</v>
       </c>
       <c r="D40" s="7">
-        <v>31873</v>
+        <v>31778</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H40" s="7">
         <v>32</v>
       </c>
       <c r="I40" s="7">
-        <v>32941</v>
+        <v>30886</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>211</v>
+        <v>155</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M40" s="7">
         <v>60</v>
       </c>
       <c r="N40" s="7">
-        <v>64815</v>
+        <v>62665</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3974,46 +3923,46 @@
         <v>169</v>
       </c>
       <c r="D41" s="7">
-        <v>140406</v>
+        <v>137186</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H41" s="7">
         <v>227</v>
       </c>
       <c r="I41" s="7">
-        <v>144658</v>
+        <v>134963</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M41" s="7">
         <v>396</v>
       </c>
       <c r="N41" s="7">
-        <v>285064</v>
+        <v>272150</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4025,7 +3974,7 @@
         <v>213</v>
       </c>
       <c r="D42" s="7">
-        <v>189941</v>
+        <v>186803</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>100</v>
@@ -4040,7 +3989,7 @@
         <v>281</v>
       </c>
       <c r="I42" s="7">
-        <v>194203</v>
+        <v>181412</v>
       </c>
       <c r="J42" s="7" t="s">
         <v>100</v>
@@ -4055,7 +4004,7 @@
         <v>494</v>
       </c>
       <c r="N42" s="7">
-        <v>384144</v>
+        <v>368216</v>
       </c>
       <c r="O42" s="7" t="s">
         <v>100</v>
@@ -4069,7 +4018,7 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>10</v>
@@ -4078,46 +4027,46 @@
         <v>2</v>
       </c>
       <c r="D43" s="7">
-        <v>2739</v>
+        <v>2625</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H43" s="7">
         <v>2</v>
       </c>
       <c r="I43" s="7">
-        <v>2127</v>
+        <v>1986</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>67</v>
+        <v>134</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M43" s="7">
         <v>4</v>
       </c>
       <c r="N43" s="7">
-        <v>4866</v>
+        <v>4611</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>135</v>
+        <v>231</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4129,46 +4078,46 @@
         <v>2</v>
       </c>
       <c r="D44" s="7">
-        <v>2229</v>
+        <v>2159</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H44" s="7">
         <v>2</v>
       </c>
       <c r="I44" s="7">
-        <v>850</v>
+        <v>786</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M44" s="7">
         <v>4</v>
       </c>
       <c r="N44" s="7">
-        <v>3079</v>
+        <v>2945</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>236</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,7 +4138,7 @@
         <v>28</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>237</v>
+        <v>124</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -4204,7 +4153,7 @@
         <v>28</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M45" s="7">
         <v>0</v>
@@ -4240,7 +4189,7 @@
         <v>28</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>237</v>
+        <v>124</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -4255,7 +4204,7 @@
         <v>28</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -4276,7 +4225,7 @@
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C47" s="7">
         <v>0</v>
@@ -4291,7 +4240,7 @@
         <v>28</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>237</v>
+        <v>124</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -4306,7 +4255,7 @@
         <v>28</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M47" s="7">
         <v>0</v>
@@ -4327,19 +4276,19 @@
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C48" s="7">
         <v>4</v>
       </c>
       <c r="D48" s="7">
-        <v>5216</v>
+        <v>4827</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>239</v>
+        <v>191</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>240</v>
@@ -4348,31 +4297,31 @@
         <v>8</v>
       </c>
       <c r="I48" s="7">
-        <v>4323</v>
+        <v>4031</v>
       </c>
       <c r="J48" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K48" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="K48" s="7" t="s">
+      <c r="L48" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="L48" s="7" t="s">
+      <c r="M48" s="7">
+        <v>12</v>
+      </c>
+      <c r="N48" s="7">
+        <v>8858</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q48" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="M48" s="7">
-        <v>12</v>
-      </c>
-      <c r="N48" s="7">
-        <v>9539</v>
-      </c>
-      <c r="O48" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="P48" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q48" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4393,37 +4342,37 @@
         <v>28</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>237</v>
+        <v>124</v>
       </c>
       <c r="H49" s="7">
         <v>5</v>
       </c>
       <c r="I49" s="7">
-        <v>2872</v>
+        <v>2709</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>247</v>
+        <v>124</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>102</v>
+        <v>244</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="M49" s="7">
         <v>5</v>
       </c>
       <c r="N49" s="7">
-        <v>2872</v>
+        <v>2709</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>249</v>
+        <v>182</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4435,46 +4384,46 @@
         <v>9</v>
       </c>
       <c r="D50" s="7">
-        <v>14571</v>
+        <v>14314</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H50" s="7">
         <v>24</v>
       </c>
       <c r="I50" s="7">
-        <v>29856</v>
+        <v>51214</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M50" s="7">
         <v>33</v>
       </c>
       <c r="N50" s="7">
-        <v>44428</v>
+        <v>65527</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4486,148 +4435,148 @@
         <v>5</v>
       </c>
       <c r="D51" s="7">
-        <v>6044</v>
+        <v>5940</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H51" s="7">
         <v>6</v>
       </c>
       <c r="I51" s="7">
-        <v>3392</v>
+        <v>3185</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>265</v>
+        <v>13</v>
       </c>
       <c r="M51" s="7">
         <v>11</v>
       </c>
       <c r="N51" s="7">
-        <v>9435</v>
+        <v>9124</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>192</v>
+        <v>261</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C52" s="7">
         <v>10</v>
       </c>
       <c r="D52" s="7">
-        <v>13594</v>
+        <v>13561</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>136</v>
+        <v>265</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H52" s="7">
         <v>30</v>
       </c>
       <c r="I52" s="7">
-        <v>17992</v>
+        <v>16832</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M52" s="7">
         <v>40</v>
       </c>
       <c r="N52" s="7">
-        <v>31586</v>
+        <v>30392</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C53" s="7">
         <v>10</v>
       </c>
       <c r="D53" s="7">
-        <v>9527</v>
+        <v>9058</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>146</v>
+        <v>273</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H53" s="7">
         <v>6</v>
       </c>
       <c r="I53" s="7">
-        <v>3754</v>
+        <v>3492</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>279</v>
+        <v>181</v>
       </c>
       <c r="M53" s="7">
         <v>16</v>
       </c>
       <c r="N53" s="7">
-        <v>13281</v>
+        <v>12551</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>280</v>
+        <v>152</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4639,46 +4588,46 @@
         <v>119</v>
       </c>
       <c r="D54" s="7">
-        <v>121170</v>
+        <v>118697</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="H54" s="7">
         <v>238</v>
       </c>
       <c r="I54" s="7">
-        <v>156230</v>
+        <v>144923</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="M54" s="7">
         <v>357</v>
       </c>
       <c r="N54" s="7">
-        <v>277400</v>
+        <v>263620</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4690,7 +4639,7 @@
         <v>161</v>
       </c>
       <c r="D55" s="7">
-        <v>175090</v>
+        <v>171180</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>100</v>
@@ -4705,7 +4654,7 @@
         <v>321</v>
       </c>
       <c r="I55" s="7">
-        <v>221395</v>
+        <v>229157</v>
       </c>
       <c r="J55" s="7" t="s">
         <v>100</v>
@@ -4720,7 +4669,7 @@
         <v>482</v>
       </c>
       <c r="N55" s="7">
-        <v>396485</v>
+        <v>400337</v>
       </c>
       <c r="O55" s="7" t="s">
         <v>100</v>
@@ -4734,7 +4683,7 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>10</v>
@@ -4752,7 +4701,7 @@
         <v>28</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="H56" s="7">
         <v>0</v>
@@ -4767,7 +4716,7 @@
         <v>28</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="M56" s="7">
         <v>0</v>
@@ -4782,7 +4731,7 @@
         <v>28</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>107</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4803,7 +4752,7 @@
         <v>28</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="H57" s="7">
         <v>0</v>
@@ -4818,7 +4767,7 @@
         <v>28</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="M57" s="7">
         <v>0</v>
@@ -4833,7 +4782,7 @@
         <v>28</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>107</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4854,7 +4803,7 @@
         <v>28</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="H58" s="7">
         <v>0</v>
@@ -4869,7 +4818,7 @@
         <v>28</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="M58" s="7">
         <v>0</v>
@@ -4884,7 +4833,7 @@
         <v>28</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>107</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4905,43 +4854,43 @@
         <v>28</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="H59" s="7">
         <v>1</v>
       </c>
       <c r="I59" s="7">
-        <v>477</v>
+        <v>433</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>49</v>
+        <v>235</v>
       </c>
       <c r="K59" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="M59" s="7">
         <v>1</v>
       </c>
       <c r="N59" s="7">
-        <v>477</v>
+        <v>433</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="P59" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>67</v>
+        <v>291</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C60" s="7">
         <v>0</v>
@@ -4956,7 +4905,7 @@
         <v>28</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
@@ -4971,7 +4920,7 @@
         <v>28</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="M60" s="7">
         <v>0</v>
@@ -4986,58 +4935,58 @@
         <v>28</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>107</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C61" s="7">
         <v>1</v>
       </c>
       <c r="D61" s="7">
-        <v>762</v>
+        <v>694</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>184</v>
+        <v>292</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H61" s="7">
         <v>1</v>
       </c>
       <c r="I61" s="7">
-        <v>450</v>
+        <v>399</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>298</v>
+        <v>118</v>
       </c>
       <c r="K61" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>64</v>
+        <v>294</v>
       </c>
       <c r="M61" s="7">
         <v>2</v>
       </c>
       <c r="N61" s="7">
-        <v>1212</v>
+        <v>1092</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>164</v>
+        <v>20</v>
       </c>
       <c r="P61" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -5058,7 +5007,7 @@
         <v>28</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
@@ -5073,7 +5022,7 @@
         <v>28</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="M62" s="7">
         <v>0</v>
@@ -5088,7 +5037,7 @@
         <v>28</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>107</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -5109,37 +5058,37 @@
         <v>28</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="H63" s="7">
         <v>1</v>
       </c>
       <c r="I63" s="7">
-        <v>455</v>
+        <v>419</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="K63" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>300</v>
+        <v>54</v>
       </c>
       <c r="M63" s="7">
         <v>1</v>
       </c>
       <c r="N63" s="7">
-        <v>455</v>
+        <v>419</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="P63" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>302</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -5151,16 +5100,16 @@
         <v>2</v>
       </c>
       <c r="D64" s="7">
-        <v>2019</v>
+        <v>1776</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>303</v>
+        <v>60</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="H64" s="7">
         <v>0</v>
@@ -5175,124 +5124,124 @@
         <v>28</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="M64" s="7">
         <v>2</v>
       </c>
       <c r="N64" s="7">
-        <v>2019</v>
+        <v>1776</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>129</v>
+        <v>196</v>
       </c>
       <c r="P64" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C65" s="7">
         <v>4</v>
       </c>
       <c r="D65" s="7">
-        <v>2749</v>
+        <v>2521</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>306</v>
+        <v>111</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="H65" s="7">
         <v>14</v>
       </c>
       <c r="I65" s="7">
-        <v>5446</v>
+        <v>5039</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>77</v>
+        <v>302</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="M65" s="7">
         <v>18</v>
       </c>
       <c r="N65" s="7">
-        <v>8194</v>
+        <v>7560</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>109</v>
+        <v>304</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C66" s="7">
         <v>83</v>
       </c>
       <c r="D66" s="7">
-        <v>57838</v>
+        <v>52841</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="H66" s="7">
         <v>139</v>
       </c>
       <c r="I66" s="7">
-        <v>61900</v>
+        <v>55978</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="M66" s="7">
         <v>222</v>
       </c>
       <c r="N66" s="7">
-        <v>119737</v>
+        <v>108820</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -5304,46 +5253,46 @@
         <v>70</v>
       </c>
       <c r="D67" s="7">
-        <v>49571</v>
+        <v>44942</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H67" s="7">
         <v>152</v>
       </c>
       <c r="I67" s="7">
-        <v>74278</v>
+        <v>66354</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="M67" s="7">
         <v>222</v>
       </c>
       <c r="N67" s="7">
-        <v>123850</v>
+        <v>111296</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -5355,7 +5304,7 @@
         <v>160</v>
       </c>
       <c r="D68" s="7">
-        <v>112939</v>
+        <v>102774</v>
       </c>
       <c r="E68" s="7" t="s">
         <v>100</v>
@@ -5370,7 +5319,7 @@
         <v>308</v>
       </c>
       <c r="I68" s="7">
-        <v>143005</v>
+        <v>128622</v>
       </c>
       <c r="J68" s="7" t="s">
         <v>100</v>
@@ -5385,7 +5334,7 @@
         <v>468</v>
       </c>
       <c r="N68" s="7">
-        <v>255944</v>
+        <v>231396</v>
       </c>
       <c r="O68" s="7" t="s">
         <v>100</v>
@@ -5399,7 +5348,7 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>10</v>
@@ -5417,7 +5366,7 @@
         <v>28</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>332</v>
+        <v>42</v>
       </c>
       <c r="H69" s="7">
         <v>0</v>
@@ -5432,7 +5381,7 @@
         <v>28</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>234</v>
+        <v>325</v>
       </c>
       <c r="M69" s="7">
         <v>0</v>
@@ -5447,7 +5396,7 @@
         <v>28</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>185</v>
+        <v>326</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,46 +5408,46 @@
         <v>1</v>
       </c>
       <c r="D70" s="7">
-        <v>585</v>
+        <v>547</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>107</v>
+        <v>185</v>
       </c>
       <c r="F70" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>123</v>
+        <v>327</v>
       </c>
       <c r="H70" s="7">
         <v>1</v>
       </c>
       <c r="I70" s="7">
-        <v>707</v>
+        <v>637</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>164</v>
+        <v>16</v>
       </c>
       <c r="K70" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>333</v>
+        <v>298</v>
       </c>
       <c r="M70" s="7">
         <v>2</v>
       </c>
       <c r="N70" s="7">
-        <v>1292</v>
+        <v>1184</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>185</v>
+        <v>328</v>
       </c>
       <c r="P70" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>64</v>
+        <v>329</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -5519,7 +5468,7 @@
         <v>28</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>332</v>
+        <v>42</v>
       </c>
       <c r="H71" s="7">
         <v>0</v>
@@ -5534,7 +5483,7 @@
         <v>28</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>234</v>
+        <v>325</v>
       </c>
       <c r="M71" s="7">
         <v>0</v>
@@ -5549,7 +5498,7 @@
         <v>28</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>185</v>
+        <v>326</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -5570,7 +5519,7 @@
         <v>28</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>332</v>
+        <v>42</v>
       </c>
       <c r="H72" s="7">
         <v>0</v>
@@ -5585,7 +5534,7 @@
         <v>28</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>234</v>
+        <v>325</v>
       </c>
       <c r="M72" s="7">
         <v>0</v>
@@ -5600,13 +5549,13 @@
         <v>28</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>185</v>
+        <v>326</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C73" s="7">
         <v>0</v>
@@ -5621,7 +5570,7 @@
         <v>28</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>332</v>
+        <v>42</v>
       </c>
       <c r="H73" s="7">
         <v>0</v>
@@ -5636,7 +5585,7 @@
         <v>28</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>234</v>
+        <v>325</v>
       </c>
       <c r="M73" s="7">
         <v>0</v>
@@ -5651,13 +5600,13 @@
         <v>28</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>185</v>
+        <v>326</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C74" s="7">
         <v>0</v>
@@ -5672,7 +5621,7 @@
         <v>28</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>332</v>
+        <v>42</v>
       </c>
       <c r="H74" s="7">
         <v>0</v>
@@ -5687,7 +5636,7 @@
         <v>28</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>234</v>
+        <v>325</v>
       </c>
       <c r="M74" s="7">
         <v>0</v>
@@ -5702,7 +5651,7 @@
         <v>28</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>185</v>
+        <v>326</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -5723,7 +5672,7 @@
         <v>28</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>332</v>
+        <v>42</v>
       </c>
       <c r="H75" s="7">
         <v>0</v>
@@ -5738,7 +5687,7 @@
         <v>28</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>234</v>
+        <v>325</v>
       </c>
       <c r="M75" s="7">
         <v>0</v>
@@ -5753,7 +5702,7 @@
         <v>28</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>185</v>
+        <v>326</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
@@ -5765,46 +5714,46 @@
         <v>1</v>
       </c>
       <c r="D76" s="7">
-        <v>545</v>
+        <v>518</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>197</v>
+        <v>330</v>
       </c>
       <c r="F76" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="H76" s="7">
         <v>1</v>
       </c>
       <c r="I76" s="7">
-        <v>1310</v>
+        <v>1209</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K76" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="M76" s="7">
         <v>2</v>
       </c>
       <c r="N76" s="7">
-        <v>1855</v>
+        <v>1728</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="P76" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>335</v>
+        <v>197</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -5816,148 +5765,148 @@
         <v>3</v>
       </c>
       <c r="D77" s="7">
-        <v>2605</v>
+        <v>2475</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>337</v>
+        <v>22</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="H77" s="7">
         <v>2</v>
       </c>
       <c r="I77" s="7">
-        <v>1386</v>
+        <v>1286</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="K77" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>280</v>
+        <v>181</v>
       </c>
       <c r="M77" s="7">
         <v>5</v>
       </c>
       <c r="N77" s="7">
-        <v>3991</v>
+        <v>3761</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="P77" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>341</v>
+        <v>152</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C78" s="7">
         <v>12</v>
       </c>
       <c r="D78" s="7">
-        <v>8142</v>
+        <v>7941</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>344</v>
+        <v>274</v>
       </c>
       <c r="H78" s="7">
         <v>16</v>
       </c>
       <c r="I78" s="7">
-        <v>10913</v>
+        <v>10238</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="K78" s="7" t="s">
-        <v>346</v>
+        <v>208</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="M78" s="7">
         <v>28</v>
       </c>
       <c r="N78" s="7">
-        <v>19055</v>
+        <v>18179</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="P78" s="7" t="s">
-        <v>349</v>
+        <v>186</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C79" s="7">
         <v>23</v>
       </c>
       <c r="D79" s="7">
-        <v>20593</v>
+        <v>20375</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="H79" s="7">
         <v>20</v>
       </c>
       <c r="I79" s="7">
-        <v>15314</v>
+        <v>14389</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="K79" s="7" t="s">
-        <v>355</v>
+        <v>300</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="M79" s="7">
         <v>43</v>
       </c>
       <c r="N79" s="7">
-        <v>35907</v>
+        <v>34764</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="P79" s="7" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -5969,46 +5918,46 @@
         <v>148</v>
       </c>
       <c r="D80" s="7">
-        <v>111765</v>
+        <v>109355</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>360</v>
+        <v>98</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>289</v>
+        <v>349</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="H80" s="7">
         <v>205</v>
       </c>
       <c r="I80" s="7">
-        <v>120656</v>
+        <v>112622</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="K80" s="7" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="M80" s="7">
         <v>353</v>
       </c>
       <c r="N80" s="7">
-        <v>232422</v>
+        <v>221978</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="P80" s="7" t="s">
-        <v>222</v>
+        <v>355</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
@@ -6020,7 +5969,7 @@
         <v>188</v>
       </c>
       <c r="D81" s="7">
-        <v>144236</v>
+        <v>141212</v>
       </c>
       <c r="E81" s="7" t="s">
         <v>100</v>
@@ -6035,7 +5984,7 @@
         <v>245</v>
       </c>
       <c r="I81" s="7">
-        <v>150286</v>
+        <v>140382</v>
       </c>
       <c r="J81" s="7" t="s">
         <v>100</v>
@@ -6050,7 +5999,7 @@
         <v>433</v>
       </c>
       <c r="N81" s="7">
-        <v>294523</v>
+        <v>281594</v>
       </c>
       <c r="O81" s="7" t="s">
         <v>100</v>
@@ -6064,7 +6013,7 @@
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>10</v>
@@ -6073,46 +6022,46 @@
         <v>6</v>
       </c>
       <c r="D82" s="7">
-        <v>5296</v>
+        <v>5040</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>145</v>
+        <v>292</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>369</v>
+        <v>249</v>
       </c>
       <c r="H82" s="7">
         <v>6</v>
       </c>
       <c r="I82" s="7">
-        <v>5734</v>
+        <v>5313</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>370</v>
+        <v>29</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>152</v>
+        <v>359</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>89</v>
+        <v>360</v>
       </c>
       <c r="M82" s="7">
         <v>12</v>
       </c>
       <c r="N82" s="7">
-        <v>11030</v>
+        <v>10353</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>163</v>
+        <v>361</v>
       </c>
       <c r="P82" s="7" t="s">
-        <v>307</v>
+        <v>16</v>
       </c>
       <c r="Q82" s="7" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
@@ -6124,46 +6073,46 @@
         <v>10</v>
       </c>
       <c r="D83" s="7">
-        <v>9643</v>
+        <v>9321</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>300</v>
+        <v>363</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="H83" s="7">
         <v>14</v>
       </c>
       <c r="I83" s="7">
-        <v>10090</v>
+        <v>9370</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>112</v>
+        <v>365</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>373</v>
+        <v>244</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="M83" s="7">
         <v>24</v>
       </c>
       <c r="N83" s="7">
-        <v>19734</v>
+        <v>18691</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="P83" s="7" t="s">
-        <v>376</v>
+        <v>333</v>
       </c>
       <c r="Q83" s="7" t="s">
-        <v>246</v>
+        <v>368</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
@@ -6184,37 +6133,37 @@
         <v>28</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="H84" s="7">
         <v>1</v>
       </c>
       <c r="I84" s="7">
-        <v>717</v>
+        <v>659</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="K84" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L84" s="7" t="s">
-        <v>239</v>
+        <v>371</v>
       </c>
       <c r="M84" s="7">
         <v>1</v>
       </c>
       <c r="N84" s="7">
-        <v>717</v>
+        <v>659</v>
       </c>
       <c r="O84" s="7" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="P84" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q84" s="7" t="s">
-        <v>380</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
@@ -6226,52 +6175,52 @@
         <v>3</v>
       </c>
       <c r="D85" s="7">
-        <v>2492</v>
+        <v>2456</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="H85" s="7">
         <v>3</v>
       </c>
       <c r="I85" s="7">
-        <v>2349</v>
+        <v>2183</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>47</v>
+        <v>326</v>
       </c>
       <c r="K85" s="7" t="s">
-        <v>382</v>
+        <v>12</v>
       </c>
       <c r="L85" s="7" t="s">
-        <v>336</v>
+        <v>374</v>
       </c>
       <c r="M85" s="7">
         <v>6</v>
       </c>
       <c r="N85" s="7">
-        <v>4841</v>
+        <v>4640</v>
       </c>
       <c r="O85" s="7" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="P85" s="7" t="s">
-        <v>235</v>
+        <v>83</v>
       </c>
       <c r="Q85" s="7" t="s">
-        <v>163</v>
+        <v>259</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C86" s="7">
         <v>0</v>
@@ -6286,88 +6235,88 @@
         <v>28</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="H86" s="7">
         <v>3</v>
       </c>
       <c r="I86" s="7">
-        <v>2690</v>
+        <v>2557</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K86" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L86" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M86" s="7">
         <v>3</v>
       </c>
       <c r="N86" s="7">
-        <v>2690</v>
+        <v>2557</v>
       </c>
       <c r="O86" s="7" t="s">
-        <v>197</v>
+        <v>132</v>
       </c>
       <c r="P86" s="7" t="s">
-        <v>383</v>
+        <v>12</v>
       </c>
       <c r="Q86" s="7" t="s">
-        <v>29</v>
+        <v>262</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C87" s="7">
         <v>9</v>
       </c>
       <c r="D87" s="7">
-        <v>9303</v>
+        <v>8971</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="H87" s="7">
         <v>12</v>
       </c>
       <c r="I87" s="7">
-        <v>8570</v>
+        <v>7977</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>386</v>
+        <v>295</v>
       </c>
       <c r="K87" s="7" t="s">
-        <v>307</v>
+        <v>132</v>
       </c>
       <c r="L87" s="7" t="s">
-        <v>387</v>
+        <v>110</v>
       </c>
       <c r="M87" s="7">
         <v>21</v>
       </c>
       <c r="N87" s="7">
-        <v>17874</v>
+        <v>16948</v>
       </c>
       <c r="O87" s="7" t="s">
-        <v>140</v>
+        <v>377</v>
       </c>
       <c r="P87" s="7" t="s">
-        <v>142</v>
+        <v>194</v>
       </c>
       <c r="Q87" s="7" t="s">
-        <v>388</v>
+        <v>41</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
@@ -6379,46 +6328,46 @@
         <v>3</v>
       </c>
       <c r="D88" s="7">
-        <v>3920</v>
+        <v>3843</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>233</v>
+        <v>82</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>31</v>
+        <v>185</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="H88" s="7">
         <v>8</v>
       </c>
       <c r="I88" s="7">
-        <v>6153</v>
+        <v>5691</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="K88" s="7" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="L88" s="7" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="M88" s="7">
         <v>11</v>
       </c>
       <c r="N88" s="7">
-        <v>10072</v>
+        <v>9534</v>
       </c>
       <c r="O88" s="7" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="P88" s="7" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="Q88" s="7" t="s">
-        <v>140</v>
+        <v>382</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
@@ -6430,46 +6379,46 @@
         <v>11</v>
       </c>
       <c r="D89" s="7">
-        <v>9397</v>
+        <v>9029</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="H89" s="7">
         <v>21</v>
       </c>
       <c r="I89" s="7">
-        <v>14742</v>
+        <v>13580</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="K89" s="7" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="L89" s="7" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="M89" s="7">
         <v>32</v>
       </c>
       <c r="N89" s="7">
-        <v>24138</v>
+        <v>22609</v>
       </c>
       <c r="O89" s="7" t="s">
-        <v>398</v>
+        <v>56</v>
       </c>
       <c r="P89" s="7" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="Q89" s="7" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
@@ -6481,148 +6430,148 @@
         <v>9</v>
       </c>
       <c r="D90" s="7">
-        <v>10501</v>
+        <v>10286</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>303</v>
+        <v>390</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H90" s="7">
         <v>6</v>
       </c>
       <c r="I90" s="7">
-        <v>5259</v>
+        <v>4974</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>229</v>
+        <v>392</v>
       </c>
       <c r="K90" s="7" t="s">
-        <v>49</v>
+        <v>393</v>
       </c>
       <c r="L90" s="7" t="s">
-        <v>133</v>
+        <v>394</v>
       </c>
       <c r="M90" s="7">
         <v>15</v>
       </c>
       <c r="N90" s="7">
-        <v>15760</v>
+        <v>15260</v>
       </c>
       <c r="O90" s="7" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="P90" s="7" t="s">
-        <v>113</v>
+        <v>386</v>
       </c>
       <c r="Q90" s="7" t="s">
-        <v>228</v>
+        <v>331</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C91" s="7">
         <v>16</v>
       </c>
       <c r="D91" s="7">
-        <v>15521</v>
+        <v>15166</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>404</v>
+        <v>13</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="H91" s="7">
         <v>25</v>
       </c>
       <c r="I91" s="7">
-        <v>14046</v>
+        <v>13134</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="K91" s="7" t="s">
-        <v>396</v>
+        <v>127</v>
       </c>
       <c r="L91" s="7" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="M91" s="7">
         <v>41</v>
       </c>
       <c r="N91" s="7">
-        <v>29567</v>
+        <v>28299</v>
       </c>
       <c r="O91" s="7" t="s">
-        <v>369</v>
+        <v>400</v>
       </c>
       <c r="P91" s="7" t="s">
-        <v>35</v>
+        <v>401</v>
       </c>
       <c r="Q91" s="7" t="s">
-        <v>355</v>
+        <v>402</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C92" s="7">
         <v>19</v>
       </c>
       <c r="D92" s="7">
-        <v>17712</v>
+        <v>17307</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="H92" s="7">
         <v>40</v>
       </c>
       <c r="I92" s="7">
-        <v>30125</v>
+        <v>27682</v>
       </c>
       <c r="J92" s="7" t="s">
-        <v>410</v>
+        <v>205</v>
       </c>
       <c r="K92" s="7" t="s">
-        <v>411</v>
+        <v>327</v>
       </c>
       <c r="L92" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="M92" s="7">
         <v>59</v>
       </c>
       <c r="N92" s="7">
-        <v>47837</v>
+        <v>44989</v>
       </c>
       <c r="O92" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="P92" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="Q92" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
@@ -6634,46 +6583,46 @@
         <v>189</v>
       </c>
       <c r="D93" s="7">
-        <v>199257</v>
+        <v>199410</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="H93" s="7">
         <v>311</v>
       </c>
       <c r="I93" s="7">
-        <v>325964</v>
+        <v>403939</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="K93" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="L93" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="M93" s="7">
         <v>500</v>
       </c>
       <c r="N93" s="7">
-        <v>525221</v>
+        <v>603350</v>
       </c>
       <c r="O93" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="P93" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="Q93" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.3">
@@ -6685,7 +6634,7 @@
         <v>275</v>
       </c>
       <c r="D94" s="7">
-        <v>283042</v>
+        <v>280830</v>
       </c>
       <c r="E94" s="7" t="s">
         <v>100</v>
@@ -6700,7 +6649,7 @@
         <v>450</v>
       </c>
       <c r="I94" s="7">
-        <v>426438</v>
+        <v>497060</v>
       </c>
       <c r="J94" s="7" t="s">
         <v>100</v>
@@ -6715,7 +6664,7 @@
         <v>725</v>
       </c>
       <c r="N94" s="7">
-        <v>709480</v>
+        <v>777890</v>
       </c>
       <c r="O94" s="7" t="s">
         <v>100</v>
@@ -6729,7 +6678,7 @@
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>10</v>
@@ -6747,7 +6696,7 @@
         <v>28</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>426</v>
+        <v>260</v>
       </c>
       <c r="H95" s="7">
         <v>0</v>
@@ -6762,7 +6711,7 @@
         <v>28</v>
       </c>
       <c r="L95" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M95" s="7">
         <v>0</v>
@@ -6777,7 +6726,7 @@
         <v>28</v>
       </c>
       <c r="Q95" s="7" t="s">
-        <v>427</v>
+        <v>246</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.3">
@@ -6798,7 +6747,7 @@
         <v>28</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>426</v>
+        <v>260</v>
       </c>
       <c r="H96" s="7">
         <v>0</v>
@@ -6813,7 +6762,7 @@
         <v>28</v>
       </c>
       <c r="L96" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M96" s="7">
         <v>0</v>
@@ -6828,7 +6777,7 @@
         <v>28</v>
       </c>
       <c r="Q96" s="7" t="s">
-        <v>427</v>
+        <v>246</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.3">
@@ -6849,7 +6798,7 @@
         <v>28</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>426</v>
+        <v>260</v>
       </c>
       <c r="H97" s="7">
         <v>0</v>
@@ -6864,7 +6813,7 @@
         <v>28</v>
       </c>
       <c r="L97" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M97" s="7">
         <v>0</v>
@@ -6879,7 +6828,7 @@
         <v>28</v>
       </c>
       <c r="Q97" s="7" t="s">
-        <v>427</v>
+        <v>246</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.3">
@@ -6900,7 +6849,7 @@
         <v>28</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>426</v>
+        <v>260</v>
       </c>
       <c r="H98" s="7">
         <v>0</v>
@@ -6915,7 +6864,7 @@
         <v>28</v>
       </c>
       <c r="L98" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M98" s="7">
         <v>0</v>
@@ -6930,13 +6879,13 @@
         <v>28</v>
       </c>
       <c r="Q98" s="7" t="s">
-        <v>427</v>
+        <v>246</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C99" s="7">
         <v>0</v>
@@ -6951,7 +6900,7 @@
         <v>28</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>426</v>
+        <v>260</v>
       </c>
       <c r="H99" s="7">
         <v>0</v>
@@ -6966,7 +6915,7 @@
         <v>28</v>
       </c>
       <c r="L99" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M99" s="7">
         <v>0</v>
@@ -6981,13 +6930,13 @@
         <v>28</v>
       </c>
       <c r="Q99" s="7" t="s">
-        <v>427</v>
+        <v>246</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C100" s="7">
         <v>0</v>
@@ -7002,7 +6951,7 @@
         <v>28</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>426</v>
+        <v>260</v>
       </c>
       <c r="H100" s="7">
         <v>0</v>
@@ -7017,7 +6966,7 @@
         <v>28</v>
       </c>
       <c r="L100" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M100" s="7">
         <v>0</v>
@@ -7032,7 +6981,7 @@
         <v>28</v>
       </c>
       <c r="Q100" s="7" t="s">
-        <v>427</v>
+        <v>246</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.3">
@@ -7053,7 +7002,7 @@
         <v>28</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>426</v>
+        <v>260</v>
       </c>
       <c r="H101" s="7">
         <v>0</v>
@@ -7068,7 +7017,7 @@
         <v>28</v>
       </c>
       <c r="L101" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M101" s="7">
         <v>0</v>
@@ -7083,7 +7032,7 @@
         <v>28</v>
       </c>
       <c r="Q101" s="7" t="s">
-        <v>427</v>
+        <v>246</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
@@ -7104,37 +7053,37 @@
         <v>28</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>426</v>
+        <v>260</v>
       </c>
       <c r="H102" s="7">
         <v>1</v>
       </c>
       <c r="I102" s="7">
-        <v>1105</v>
+        <v>924</v>
       </c>
       <c r="J102" s="7" t="s">
-        <v>428</v>
+        <v>123</v>
       </c>
       <c r="K102" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L102" s="7" t="s">
-        <v>429</v>
+        <v>150</v>
       </c>
       <c r="M102" s="7">
         <v>1</v>
       </c>
       <c r="N102" s="7">
-        <v>1105</v>
+        <v>924</v>
       </c>
       <c r="O102" s="7" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="P102" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q102" s="7" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.3">
@@ -7155,139 +7104,139 @@
         <v>28</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>426</v>
+        <v>260</v>
       </c>
       <c r="H103" s="7">
         <v>1</v>
       </c>
       <c r="I103" s="7">
-        <v>625</v>
+        <v>541</v>
       </c>
       <c r="J103" s="7" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="K103" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L103" s="7" t="s">
-        <v>433</v>
+        <v>241</v>
       </c>
       <c r="M103" s="7">
         <v>1</v>
       </c>
       <c r="N103" s="7">
-        <v>625</v>
+        <v>541</v>
       </c>
       <c r="O103" s="7" t="s">
-        <v>434</v>
+        <v>372</v>
       </c>
       <c r="P103" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q103" s="7" t="s">
-        <v>186</v>
+        <v>31</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C104" s="7">
         <v>7</v>
       </c>
       <c r="D104" s="7">
-        <v>7139</v>
+        <v>6171</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>435</v>
+        <v>89</v>
       </c>
       <c r="H104" s="7">
         <v>3</v>
       </c>
       <c r="I104" s="7">
-        <v>2715</v>
+        <v>2309</v>
       </c>
       <c r="J104" s="7" t="s">
-        <v>433</v>
+        <v>371</v>
       </c>
       <c r="K104" s="7" t="s">
-        <v>235</v>
+        <v>120</v>
       </c>
       <c r="L104" s="7" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="M104" s="7">
         <v>10</v>
       </c>
       <c r="N104" s="7">
-        <v>9854</v>
+        <v>8480</v>
       </c>
       <c r="O104" s="7" t="s">
-        <v>245</v>
+        <v>388</v>
       </c>
       <c r="P104" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q104" s="7" t="s">
-        <v>112</v>
+        <v>424</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C105" s="7">
         <v>62</v>
       </c>
       <c r="D105" s="7">
-        <v>61714</v>
+        <v>52578</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="H105" s="7">
         <v>47</v>
       </c>
       <c r="I105" s="7">
-        <v>34980</v>
+        <v>29420</v>
       </c>
       <c r="J105" s="7" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="K105" s="7" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="L105" s="7" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="M105" s="7">
         <v>109</v>
       </c>
       <c r="N105" s="7">
-        <v>96695</v>
+        <v>81998</v>
       </c>
       <c r="O105" s="7" t="s">
-        <v>202</v>
+        <v>431</v>
       </c>
       <c r="P105" s="7" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="Q105" s="7" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.3">
@@ -7299,46 +7248,46 @@
         <v>324</v>
       </c>
       <c r="D106" s="7">
-        <v>335971</v>
+        <v>283970</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>445</v>
+        <v>356</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>446</v>
+        <v>354</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="H106" s="7">
         <v>446</v>
       </c>
       <c r="I106" s="7">
-        <v>364636</v>
+        <v>300655</v>
       </c>
       <c r="J106" s="7" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="K106" s="7" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="L106" s="7" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="M106" s="7">
         <v>770</v>
       </c>
       <c r="N106" s="7">
-        <v>700605</v>
+        <v>584626</v>
       </c>
       <c r="O106" s="7" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="P106" s="7" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="Q106" s="7" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.3">
@@ -7350,7 +7299,7 @@
         <v>393</v>
       </c>
       <c r="D107" s="7">
-        <v>404824</v>
+        <v>342719</v>
       </c>
       <c r="E107" s="7" t="s">
         <v>100</v>
@@ -7365,7 +7314,7 @@
         <v>498</v>
       </c>
       <c r="I107" s="7">
-        <v>404061</v>
+        <v>333849</v>
       </c>
       <c r="J107" s="7" t="s">
         <v>100</v>
@@ -7380,7 +7329,7 @@
         <v>891</v>
       </c>
       <c r="N107" s="7">
-        <v>808884</v>
+        <v>676569</v>
       </c>
       <c r="O107" s="7" t="s">
         <v>100</v>
@@ -7403,46 +7352,46 @@
         <v>12</v>
       </c>
       <c r="D108" s="7">
-        <v>12029</v>
+        <v>11657</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>454</v>
+        <v>330</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>455</v>
+        <v>233</v>
       </c>
       <c r="H108" s="7">
         <v>14</v>
       </c>
       <c r="I108" s="7">
-        <v>12102</v>
+        <v>11310</v>
       </c>
       <c r="J108" s="7" t="s">
-        <v>294</v>
+        <v>441</v>
       </c>
       <c r="K108" s="7" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="L108" s="7" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="M108" s="7">
         <v>26</v>
       </c>
       <c r="N108" s="7">
-        <v>24131</v>
+        <v>22967</v>
       </c>
       <c r="O108" s="7" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="P108" s="7" t="s">
         <v>43</v>
       </c>
       <c r="Q108" s="7" t="s">
-        <v>332</v>
+        <v>392</v>
       </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.3">
@@ -7454,46 +7403,46 @@
         <v>21</v>
       </c>
       <c r="D109" s="7">
-        <v>23556</v>
+        <v>23657</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>142</v>
+        <v>443</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>457</v>
+        <v>194</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>458</v>
+        <v>111</v>
       </c>
       <c r="H109" s="7">
         <v>22</v>
       </c>
       <c r="I109" s="7">
-        <v>16097</v>
+        <v>15035</v>
       </c>
       <c r="J109" s="7" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="K109" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L109" s="7" t="s">
-        <v>460</v>
+        <v>381</v>
       </c>
       <c r="M109" s="7">
         <v>43</v>
       </c>
       <c r="N109" s="7">
-        <v>39653</v>
+        <v>38691</v>
       </c>
       <c r="O109" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P109" s="7" t="s">
-        <v>132</v>
+        <v>421</v>
       </c>
       <c r="Q109" s="7" t="s">
-        <v>163</v>
+        <v>363</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.3">
@@ -7514,37 +7463,37 @@
         <v>28</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>461</v>
+        <v>83</v>
       </c>
       <c r="H110" s="7">
         <v>1</v>
       </c>
       <c r="I110" s="7">
-        <v>717</v>
+        <v>659</v>
       </c>
       <c r="J110" s="7" t="s">
-        <v>462</v>
+        <v>119</v>
       </c>
       <c r="K110" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L110" s="7" t="s">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="M110" s="7">
         <v>1</v>
       </c>
       <c r="N110" s="7">
-        <v>717</v>
+        <v>659</v>
       </c>
       <c r="O110" s="7" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
       <c r="P110" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q110" s="7" t="s">
-        <v>464</v>
+        <v>393</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.3">
@@ -7556,52 +7505,52 @@
         <v>4</v>
       </c>
       <c r="D111" s="7">
-        <v>2652</v>
+        <v>2619</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>380</v>
+        <v>446</v>
       </c>
       <c r="H111" s="7">
         <v>5</v>
       </c>
       <c r="I111" s="7">
-        <v>4198</v>
+        <v>4339</v>
       </c>
       <c r="J111" s="7" t="s">
-        <v>427</v>
+        <v>447</v>
       </c>
       <c r="K111" s="7" t="s">
-        <v>383</v>
+        <v>448</v>
       </c>
       <c r="L111" s="7" t="s">
-        <v>278</v>
+        <v>449</v>
       </c>
       <c r="M111" s="7">
         <v>9</v>
       </c>
       <c r="N111" s="7">
-        <v>6850</v>
+        <v>6958</v>
       </c>
       <c r="O111" s="7" t="s">
-        <v>296</v>
+        <v>238</v>
       </c>
       <c r="P111" s="7" t="s">
-        <v>434</v>
+        <v>372</v>
       </c>
       <c r="Q111" s="7" t="s">
-        <v>197</v>
+        <v>43</v>
       </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C112" s="7">
         <v>0</v>
@@ -7616,88 +7565,88 @@
         <v>28</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>461</v>
+        <v>83</v>
       </c>
       <c r="H112" s="7">
         <v>5</v>
       </c>
       <c r="I112" s="7">
-        <v>4204</v>
+        <v>3950</v>
       </c>
       <c r="J112" s="7" t="s">
-        <v>427</v>
+        <v>120</v>
       </c>
       <c r="K112" s="7" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="L112" s="7" t="s">
-        <v>465</v>
+        <v>16</v>
       </c>
       <c r="M112" s="7">
         <v>5</v>
       </c>
       <c r="N112" s="7">
-        <v>4204</v>
+        <v>3950</v>
       </c>
       <c r="O112" s="7" t="s">
-        <v>461</v>
+        <v>83</v>
       </c>
       <c r="P112" s="7" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="Q112" s="7" t="s">
-        <v>25</v>
+        <v>451</v>
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C113" s="7">
         <v>18</v>
       </c>
       <c r="D113" s="7">
-        <v>19527</v>
+        <v>18628</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>466</v>
+        <v>73</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>184</v>
+        <v>292</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>19</v>
+        <v>327</v>
       </c>
       <c r="H113" s="7">
         <v>31</v>
       </c>
       <c r="I113" s="7">
-        <v>19974</v>
+        <v>18878</v>
       </c>
       <c r="J113" s="7" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="K113" s="7" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="L113" s="7" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="M113" s="7">
         <v>49</v>
       </c>
       <c r="N113" s="7">
-        <v>39501</v>
+        <v>37506</v>
       </c>
       <c r="O113" s="7" t="s">
-        <v>113</v>
+        <v>453</v>
       </c>
       <c r="P113" s="7" t="s">
-        <v>234</v>
+        <v>421</v>
       </c>
       <c r="Q113" s="7" t="s">
-        <v>396</v>
+        <v>454</v>
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.3">
@@ -7709,46 +7658,46 @@
         <v>10</v>
       </c>
       <c r="D114" s="7">
-        <v>10546</v>
+        <v>10461</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>193</v>
+        <v>14</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="H114" s="7">
         <v>18</v>
       </c>
       <c r="I114" s="7">
-        <v>13121</v>
+        <v>12249</v>
       </c>
       <c r="J114" s="7" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="K114" s="7" t="s">
-        <v>186</v>
+        <v>116</v>
       </c>
       <c r="L114" s="7" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="M114" s="7">
         <v>28</v>
       </c>
       <c r="N114" s="7">
-        <v>23666</v>
+        <v>22709</v>
       </c>
       <c r="O114" s="7" t="s">
-        <v>307</v>
+        <v>442</v>
       </c>
       <c r="P114" s="7" t="s">
-        <v>185</v>
+        <v>244</v>
       </c>
       <c r="Q114" s="7" t="s">
-        <v>67</v>
+        <v>291</v>
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.3">
@@ -7760,46 +7709,46 @@
         <v>36</v>
       </c>
       <c r="D115" s="7">
-        <v>41266</v>
+        <v>42270</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>468</v>
+        <v>394</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>469</v>
+        <v>46</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="H115" s="7">
         <v>63</v>
       </c>
       <c r="I115" s="7">
-        <v>58887</v>
+        <v>78670</v>
       </c>
       <c r="J115" s="7" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="K115" s="7" t="s">
-        <v>66</v>
+        <v>457</v>
       </c>
       <c r="L115" s="7" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="M115" s="7">
         <v>99</v>
       </c>
       <c r="N115" s="7">
-        <v>100152</v>
+        <v>120940</v>
       </c>
       <c r="O115" s="7" t="s">
-        <v>473</v>
+        <v>242</v>
       </c>
       <c r="P115" s="7" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="Q115" s="7" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.3">
@@ -7811,148 +7760,148 @@
         <v>34</v>
       </c>
       <c r="D116" s="7">
-        <v>36653</v>
+        <v>36755</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>23</v>
+        <v>461</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>476</v>
+        <v>64</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="H116" s="7">
         <v>32</v>
       </c>
       <c r="I116" s="7">
-        <v>19771</v>
+        <v>18958</v>
       </c>
       <c r="J116" s="7" t="s">
-        <v>332</v>
+        <v>452</v>
       </c>
       <c r="K116" s="7" t="s">
-        <v>30</v>
+        <v>463</v>
       </c>
       <c r="L116" s="7" t="s">
-        <v>476</v>
+        <v>40</v>
       </c>
       <c r="M116" s="7">
         <v>66</v>
       </c>
       <c r="N116" s="7">
-        <v>56424</v>
+        <v>55713</v>
       </c>
       <c r="O116" s="7" t="s">
-        <v>478</v>
+        <v>247</v>
       </c>
       <c r="P116" s="7" t="s">
-        <v>479</v>
+        <v>230</v>
       </c>
       <c r="Q116" s="7" t="s">
-        <v>480</v>
+        <v>76</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C117" s="7">
         <v>81</v>
       </c>
       <c r="D117" s="7">
-        <v>97181</v>
+        <v>100839</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="H117" s="7">
         <v>138</v>
       </c>
       <c r="I117" s="7">
-        <v>85694</v>
+        <v>80479</v>
       </c>
       <c r="J117" s="7" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="K117" s="7" t="s">
-        <v>334</v>
+        <v>13</v>
       </c>
       <c r="L117" s="7" t="s">
-        <v>338</v>
+        <v>399</v>
       </c>
       <c r="M117" s="7">
         <v>219</v>
       </c>
       <c r="N117" s="7">
-        <v>182875</v>
+        <v>181318</v>
       </c>
       <c r="O117" s="7" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="P117" s="7" t="s">
-        <v>68</v>
+        <v>469</v>
       </c>
       <c r="Q117" s="7" t="s">
-        <v>486</v>
+        <v>297</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C118" s="7">
         <v>232</v>
       </c>
       <c r="D118" s="7">
-        <v>205490</v>
+        <v>190204</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>438</v>
+        <v>470</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="H118" s="7">
         <v>307</v>
       </c>
       <c r="I118" s="7">
-        <v>196276</v>
+        <v>178265</v>
       </c>
       <c r="J118" s="7" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="K118" s="7" t="s">
-        <v>490</v>
+        <v>339</v>
       </c>
       <c r="L118" s="7" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="M118" s="7">
         <v>539</v>
       </c>
       <c r="N118" s="7">
-        <v>401766</v>
+        <v>368470</v>
       </c>
       <c r="O118" s="7" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="P118" s="7" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="Q118" s="7" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.3">
@@ -7964,46 +7913,46 @@
         <v>1315</v>
       </c>
       <c r="D119" s="7">
-        <v>1268590</v>
+        <v>1217946</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>496</v>
+        <v>479</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>497</v>
+        <v>480</v>
       </c>
       <c r="H119" s="7">
         <v>2107</v>
       </c>
       <c r="I119" s="7">
-        <v>1514414</v>
+        <v>1485002</v>
       </c>
       <c r="J119" s="7" t="s">
-        <v>498</v>
+        <v>481</v>
       </c>
       <c r="K119" s="7" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="L119" s="7" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="M119" s="7">
         <v>3422</v>
       </c>
       <c r="N119" s="7">
-        <v>2783003</v>
+        <v>2702949</v>
       </c>
       <c r="O119" s="7" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
       <c r="P119" s="7" t="s">
-        <v>502</v>
+        <v>485</v>
       </c>
       <c r="Q119" s="7" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.3">
@@ -8015,7 +7964,7 @@
         <v>1763</v>
       </c>
       <c r="D120" s="7">
-        <v>1717488</v>
+        <v>1655035</v>
       </c>
       <c r="E120" s="7" t="s">
         <v>100</v>
@@ -8030,7 +7979,7 @@
         <v>2743</v>
       </c>
       <c r="I120" s="7">
-        <v>1945454</v>
+        <v>1907795</v>
       </c>
       <c r="J120" s="7" t="s">
         <v>100</v>
@@ -8045,7 +7994,7 @@
         <v>4506</v>
       </c>
       <c r="N120" s="7">
-        <v>3662941</v>
+        <v>3562831</v>
       </c>
       <c r="O120" s="7" t="s">
         <v>100</v>
@@ -8059,7 +8008,7 @@
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>504</v>
+        <v>487</v>
       </c>
     </row>
   </sheetData>
